--- a/curry_popular.xlsx
+++ b/curry_popular.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,15 +521,10 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>permanently_closed</t>
+          <t>is_popular</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_popular</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -573,7 +568,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107836903714725740490"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xTNjEOh1aShkHKE83Zr21tfTxAjqlZ7DLLNP-m2XMaNOJYFnJq6fUEl55I7p-5gUXdzYR8IpoR6tgBdaQjnrMQIYzTXlUKDhwuvPiy9GAFOpfzRixrjxkJmqEsYh4ng1h-8pU7AxHc2Wt_bA4T1-wJm_wc2AYFmcSVeHDy8hB0kDGe', 'width': 4032}]</t>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107836903714725740490"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xz0vf4998EDXfQReOMYcSPFxTBxbd8o2XAuvyPnq77Z9rq1TcIkMBB3W7crd6UnFekI_Pjjxt_CDCncQag28sLb4i5aiOAccB2M_1fzzaaszxCJJCpGDxJUX3IritTzZQNfvnphPfPB5lGmSylkTANSXUTcarD3ScAp860et2prjOw', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -615,11 +610,10 @@
       <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ_3rMzzh3bjQR80dCU3gCBbk</t>
         </is>
@@ -663,7 +657,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103376256517614991785"&gt;嚴為麟&lt;/a&gt;'], 'photo_reference': 'AWYs27z9YY0Zmvrp2G4e9g7ZPxF3m6qL0tPiqD8DyQSP3ZDTqGjukWFxdfUKQK6ZkWkCYqPva86-s2a5IG9vQnaV-aOYdiRXwv3aLYda3L6QwMggR5XTTjDZ823496pH-rDyDcpBNmuygg5vgA4Y0GDplPoGELIwitEVdQ2nIv-MO7bUi31u', 'width': 4284}]</t>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103376256517614991785"&gt;嚴為麟&lt;/a&gt;'], 'photo_reference': 'AWYs27wBltWeLy1-Ztr-IyrvrC0N1TEkriKi6nVBCxKvtYtJbBkFMxM0QL4q_KHe-fGss-9rFc8b0stLpFHhXRVbfTmHIRsP_dCq2xI_7aZcGOmHSQWbS1IiauQ24OKnAj_xcxMaTJX4CYXaUsrnrNJKxbcqt87hnEAuT25SnxLZ0xefgSo7', 'width': 4284}]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -705,11 +699,10 @@
       <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJzZyc34l2bjQRnV3VpAGeEiY</t>
         </is>
@@ -753,7 +746,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'height': 1477, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113720102823398861408"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yXgW2256G9EBd3ClKI2YucOwS-mmA6C4iGKKP22ZIEfDESV6EfMM1U7CtUs7g91OndBPS2BcHbko3ztNV6UBlFaLfty9W8qWURZorNV2aLY5Pjca9vXoeKQYC5NrpMGhJ3N5KB2820ZwCR2TPahnJEEBDxTmf1xd4XBkZrOMrtgUb6', 'width': 1108}]</t>
+          <t>[{'height': 1477, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113720102823398861408"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27y5a4qIikLbJZyZlGlVOmm2-OFHV_LvvpddlWIK-PGFuhfCWs7He7I6MkE5tGjX8bqIH2qRPZmj5rNovQBJXJstZp9NdzKFHf5fu8aiPT_Q7DdwCjhAcOze4MLh6JjK_AUFYPWCHyKDsy7Oi9uWkx-vTMbrn0fdqBgKUINJX-ZWaUyA', 'width': 1108}]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -793,11 +786,10 @@
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ_4BPiEx3bjQRY3T328YLi6s</t>
         </is>
@@ -841,7 +833,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[{'height': 3000, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114642573509506895820"&gt;高小葳&lt;/a&gt;'], 'photo_reference': 'AWYs27xuOyEFXrcpf-EoQTAzvDD_fgc5y_WCLd6tPows_7RTceYgfQ2IOj9eBd-_N4dOaw7fC3EU7bhcabBPDVwm3dKJpy__qOFPS1juyddDVr7k-4Ejpamo5eI15DGFvI1n4co2TKgIaUVfCL-qVlcgHLeY4MCQyqfIfYxndLGuKsBXNQg0', 'width': 4000}]</t>
+          <t>[{'height': 3000, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114642573509506895820"&gt;高小葳&lt;/a&gt;'], 'photo_reference': 'AWYs27xLvvLp2OHGj0vBwWqhOyVNzRNMaZ7HNp_LClPyR76QP4Tt9yj4ZyJSRUAS5m9ADkuThFyCWS6bmpxd1grnmxJ89lVaaSMIrmIakMoHvGQAGi_OETxQIuyxBRPlmPutgwUAQXtr37NpH2KZLQqEFoKp6eu184eR7-rklm8DuLZNaT9J', 'width': 4000}]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -883,11 +875,10 @@
       <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ8czJ6_h3bjQRMELF41rr2Xc</t>
         </is>
@@ -931,7 +922,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/111535458322488230051"&gt;劉嘉仁&lt;/a&gt;'], 'photo_reference': 'AWYs27wy_hfvjRsHzsawRK-EY_QJd7iNGYOIRdBIMu2ERsN1dQErr5WDHnb53VJkNSDiYkgnBkk7EPleZwWiTMOnozgV-JM-vJpT6mm43lid_Oh-tgXYxml1nglr3JOkliT4MGruLDQO7MUGIUyvbBEBdtMbzI0yA6KKP_JTdW_PYFTI-WA8', 'width': 5712}]</t>
+          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/111535458322488230051"&gt;劉嘉仁&lt;/a&gt;'], 'photo_reference': 'AWYs27wH4Yol3Vf2lbZIvBUmYw8p1rJZDE4u6AMFJwk9lt3J-cj59wOUs9qb4S00P36-YO7TMV_zbiBQ_t4no7jYnzi4E-SXScZqrt4NJJAVfYPEhi0P_RxZXXBKcYgjOyI14ksanB2RuDxuoNcCHZ_itj5KYfPizD_iJPab5T74nlrdI_Xk', 'width': 5712}]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -971,11 +962,10 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ-SgK_jZ3bjQR62-4O_6vmHM</t>
         </is>
@@ -1019,7 +1009,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/116382708783999486533"&gt;陳鏡方&lt;/a&gt;'], 'photo_reference': 'AWYs27xpqRbDKj62YKe1n6gSYNjsH2cOSq5vYV7Oy99Iu-ls2lRbYces3UGdvz6H-WaMiNsvBiI3jARE_Bn-cEqDK2_sqXMR6pfK6o31i2tm32nxXRn_jFkaqT2jO9qKbl02DJe9dxkQdeTq8oZK4zkiDqXhCu_QZ5ADGXNVPSR52Yaz0t-w', 'width': 3024}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/116382708783999486533"&gt;陳鏡方&lt;/a&gt;'], 'photo_reference': 'AWYs27xQBcYM5yuPU45KTY0RSlWYZmxA0a1s-_6Cus-eXWSrJe5T0llwkJtwZXS6ODDQpxF-6DZ9A32ErBF4nVhOV2-jmUNzfWcro5XlNdarWJY3EgnlQ_8704ZN_sXHI77VLFR_HnEYwgGkKCkN1YQbj7FYcRqHNGN4B4Ob0n6mLYwqMzkD', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1061,11 +1051,10 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ8zR7U9t3bjQRun8SyUoUzrs</t>
         </is>
@@ -1109,7 +1098,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'height': 3072, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103694068266740108676"&gt;張西元&lt;/a&gt;'], 'photo_reference': 'AWYs27xIteB_cPb5qxHOKPrHf2_Lut4nDdXLTd5PsloQ3Kew11MRRlkhHU0-qsfc5t29h_76emuW2Tu5XQdmOJHMTK1yh1ZZ9NlDuSqdp-3KmsQ-Zh4NWi2EivBG_7eThf8tF26X9yASMxYS2-XVt1OTl7RAptBfwhtyXwAL3wvyQwe9obmA', 'width': 4096}]</t>
+          <t>[{'height': 3072, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103694068266740108676"&gt;張西元&lt;/a&gt;'], 'photo_reference': 'AWYs27zriluvjLNTohdiJ3lA-q3Q3sAo8Oy2TzlSmY6PJmymvWlhV3Z2rne2GCOqE_inYCoXsGmtCHulIO-k6i8UAWE0DBgE-TX1tQFv-2Mj5E9kwaCtUI_UM2mPbvz130QpTM72D0FDX7UJRIhE8GInoScqGmIiNJIMvhfEtkFeJ74xyzyM', 'width': 4096}]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1149,11 +1138,10 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJyxmPJs53bjQR-0nHd2svzNc</t>
         </is>
@@ -1197,7 +1185,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'height': 2296, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113706917970012852063"&gt;陈鸿铭&lt;/a&gt;'], 'photo_reference': 'AWYs27yuMiXyfRTm1bdS16WrbId5AOmHQhoGv0xkwxZ91YaRq1j391-z5F7QfUEQaPeVJC5Oefwv1_fKfT-MgAK7G7iLsDiwWDjRd_eDnwf0IGCWupiPXV_jIZpIIX7A3oZeTUyn0qCISRVwBgVThytPaWyCqg3Kbb3dpJq9wLUQv3E7huDx', 'width': 4080}]</t>
+          <t>[{'height': 2296, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113706917970012852063"&gt;陈鸿铭&lt;/a&gt;'], 'photo_reference': 'AWYs27ws84o5lI954U_NOJfVApFtD6zIjnFk4sipI-MUxxEIlKVzlUS8mxarBW1_jJ_q5u_I5YZJYoKdYnmZKJ1h_HEhQOqlEJErBCyM4iTuKe377i_KBmwnpiXvYt62_T1e89Pqura7zHrzjzd2zZhY54LKseCQOGEkGu-CnzGqerUIOAS4', 'width': 4080}]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1239,11 +1227,10 @@
       <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
         </is>
@@ -1287,7 +1274,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108373044813991121766"&gt;JEFF cheng&lt;/a&gt;'], 'photo_reference': 'AWYs27zoQjhbuzeeWjcnv5FXEEI1Z0Lntko7HNLjwvH8FO0Kq_uLbTUxQIWlc3TUFKweyjgdWsR9YgZ_wYTqCyORkmC3xNO4zHglpOggN89XtiKUuYKRUxGc4LhWC7t8ZACP1JLKlQhB7XLtQJVX0yjjGJRfjXz78kpDN1EWfwTOPHLwqkhe', 'width': 4284}]</t>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108373044813991121766"&gt;JEFF cheng&lt;/a&gt;'], 'photo_reference': 'AWYs27x1zzEx3FWR0-uDPM13yIvW7tLsAr5S9yUATW9Rx5jwYFJvRM1l50Z_qhNh_CDQ9J3xGw57cJ5G21cH9jJ5y5PdXJABKIplLy6jt3nxll0YHMAjRRHrwDHJmrlJHzDx53kb_E07wr3HAFciElIicLbvcTV4_pXEXShfhSxA2HfTx5kH', 'width': 4284}]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1329,11 +1316,10 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
         </is>
@@ -1377,7 +1363,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107531972648522233947"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27x1DgVd5mMNs9QrI56WOa1Gno1ztOmWf_vTRO62Ktv63EcVz1jYW9jof-RH0jC7Fa4aHOnvgOIDhDMS4VWEH1cxN-ZQas_7lHLKiy853STGyYikBVxBNculk-0sgGAsLXQRNG2b5xTpjNJ1kMiMFI6b01eAew8HPQpqudUAq7P7ZTIt', 'width': 3024}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107531972648522233947"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xN63CVZSuVG0w5lYmvdQ4wAw5AizCrlwhzTi3DThg82-tn3EeINGyQs6J2rzNFrIbiMhbGPcm3fKx1efPvYnstGu9SKnkXjm769PmkQpr0he6qglQw9RK1shTlWtR7pyNKNU6GoEUiRTvWj3NiRxKmC1LlnEJ0j3Z84LO3pJAM8iH4', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1405,7 +1391,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['cafe', 'restaurant', 'food', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['cafe', 'restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1417,11 +1403,10 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJOXr-l_l3bjQRQswq7DTpzng</t>
         </is>
@@ -1465,7 +1450,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'height': 1067, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/105884378609034234288"&gt;Kc Lin&lt;/a&gt;'], 'photo_reference': 'AWYs27xkGbXz5Y2Y5SYC2tsQ0L2WCAYE81tpLP_LUaPeiG9kxsJMo8Q7ts95K3cCcUPdYXUJsCjJ0JElhjThL7S3m22qtermfy3NwiO_hVcAceZvgqx9bDeFQ5MInBbIbxtewQnaTLb1YSDbzR3nUtMZ4KHFCuMKTOR_s3cGWf_Zn3doxyou', 'width': 1600}]</t>
+          <t>[{'height': 1067, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/105884378609034234288"&gt;Kc Lin&lt;/a&gt;'], 'photo_reference': 'AWYs27xzvdhBz2BrAxSgdPNurn8UYZje4P_a9tyNEtnLmYQ-UJI94ytZhDzlHWEXypZkcC4U-2CwkqEqjFWat1j4xn4pj-6MY5yF5na_dHieAzPme8InJ4pH5M9rl7s_cAL_fOTEqUrSYm_dwrY-RArTJDt9t8sSW63WsZgkGxODVrY_HqX5', 'width': 1600}]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1507,11 +1492,10 @@
       <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ1S05t6x3bjQRGqsEIvpGOhU</t>
         </is>
@@ -1555,7 +1539,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'height': 2268, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100847020509390037156"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27y6IP_Zp6aK2PHSmPYEkk2rSgadyaJrzeU7uAIr0WDq6fwpShrszC9-zbwGjFp8t6GCkTB-09210bSUIxTg47d6SY14WWVAxL4LjRZNSadg7Yplqu7mjeyC79cXGM4fiMaIBfjxuScMtnfcM4XQfhXc9xdkmmFzME1nogUUQQC_2hTX', 'width': 4032}]</t>
+          <t>[{'height': 2268, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100847020509390037156"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wWNGewesL0gozJOqP-GUllavd8o6D_Rb99mIzZMnHCECOSY2X9x1QicYNj03pkGrCvTYbA1KNNdvOMBTN1zY8J9SNmDhegY2eghvuekEUjiBv2Z3hYazR6rzDV5mllpyPh0XKEAUlhSEgD6Nzkd97TbKdZaD3kEaAasCphoFqUBbd0', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1583,7 +1567,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['cafe', 'museum', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
+          <t>['museum', 'cafe', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1597,11 +1581,10 @@
       <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ96kYpiZ3bjQR6HvF4Z-CY4o</t>
         </is>
@@ -1615,7 +1598,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 23.0023733, 'lng': 120.2042782}, 'viewport': {'northeast': {'lat': 23.00370852989272, 'lng': 120.2056372798927}, 'southwest': {'lat': 23.00100887010728, 'lng': 120.2029376201073}}}</t>
+          <t>{'location': {'lat': 22.9938749, 'lng': 120.2075196}, 'viewport': {'northeast': {'lat': 22.99519477989272, 'lng': 120.2088424798928}, 'southwest': {'lat': 22.99249512010728, 'lng': 120.2061428201073}}}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1635,7 +1618,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>小德森排骨王子（便當×咖哩×茶×外帶×外送×無內用）</t>
+          <t>Mr.Eraserkitchen</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1645,25 +1628,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115605212767907275422"&gt;Chiuyun Huang&lt;/a&gt;'], 'photo_reference': 'AWYs27ziCz6EX7I7Ni6OjgDUg5BPJdCdjaGvz4iTU5BlusiEIegt63tR6TonPjeEeeUOorKrj1LKPukpGgv05N1HJp5gmFy7RMEgYUj18pbfOJ5fArIoNAusDy9AKH_mnnnPLiRvmHOLJonok2D1MtwwYiAy3S-oZ_U0OmEeh6UDMi-jD7Q5', 'width': 4284}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/110516851784580578590"&gt;林欣瑩&lt;/a&gt;'], 'photo_reference': 'AWYs27yULutIUhrFMCsTLSeqDX11yjfubN9v1SG9cqdLJUcsBb0EdpEtIUoE_lMbH7hAxknaP5XNHIqNpi3IQ_5TVnB0CpO0cjwcyFCvcg85yE3f13lW_MeFa_q595Bpur8G4UIoQ8u79V_tIT3YldGbwCnsVYDvTZKTyLEPCxVvP3oJC7Eu', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+          <t>ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'compound_code': '2623+XP 長德里 Tainan City, North District', 'global_code': '7QM22623+XP'}</t>
+          <t>{'compound_code': 'X6V5+G2 West Central District, Tainan City', 'global_code': '7QJ2X6V5+G2'}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+          <t>ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1673,27 +1656,26 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+          <t>['restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>421</v>
+        <v>759</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>No. 260-8, Gongyuan S Rd</t>
+          <t>No. 6號, Lane 82, Zhongshan Rd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+        <v>2</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
     </row>
@@ -1705,83 +1687,703 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>{'location': {'lat': 23.0012266, 'lng': 120.2074461}, 'viewport': {'northeast': {'lat': 23.00261337989272, 'lng': 120.2088062798927}, 'southwest': {'lat': 22.99991372010728, 'lng': 120.2061066201073}}}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tyzzer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'height': 2448, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102200110075648090171"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yu-6P_Y5IFsXvLoUKkA6JPKhx9Xe2_uY5VMLgNaBqxG0Zi69OrS8_ukKZek-Unw_laNB0gbcPdrr-5r9VN6t6GBxpBvkFTd2kegmAUBs53LJ6x9MuTLuxL2EiI_taifZDfdvXeHZ2JE9LrN-NVjMihTMtXN6Uc1Su9mhUDm6zI6xwj', 'width': 3264}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{'compound_code': '2624+FX 玉皇里 Tainan City, North District', 'global_code': '7QM22624+FX'}</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>589</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No. 139號, Gongyuan S Rd</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 23.0023733, 'lng': 120.2042782}, 'viewport': {'northeast': {'lat': 23.00370852989272, 'lng': 120.2056372798927}, 'southwest': {'lat': 23.00100887010728, 'lng': 120.2029376201073}}}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>小德森排骨王子（便當×咖哩×茶×外帶×外送×無內用）</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115605212767907275422"&gt;Chiuyun Huang&lt;/a&gt;'], 'photo_reference': 'AWYs27xvm4AX1xKQWGDEfaKQqhMKnAibdHzvWhS0r4UjdDtWwk0X0EN1XrypSjGfdjTkXV5l2eqrEQgqGizncsmqa3f5iIxPbsUARPoxklQm_6rS6SWkkd4zmWDwpNgrVNCNhE9JiwLw5WcNvou3iCPjp6orvNfKJkM_aCL6ZYN0iGSj7aQ1', 'width': 4284}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{'compound_code': '2623+XP 長德里 Tainan City, North District', 'global_code': '7QM22623+XP'}</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>421</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No. 260-8, Gongyuan S Rd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.994179, 'lng': 120.197159}, 'viewport': {'northeast': {'lat': 22.99552952989272, 'lng': 120.1985037798928}, 'southwest': {'lat': 22.99282987010728, 'lng': 120.1958041201073}}}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>#4B96F3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/shopping_pinlet</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>拾參馬卡龍 正興店</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/112652517185688395230"&gt;拾參&lt;/a&gt;'], 'photo_reference': 'AWYs27zV7ANkkJXzLiavpiN0p9Ky6o52ZsqnzVKqLg3tbJZB1RRLE3Ot5b4e2VVNmbLNXClWTlLeFT--qqXGkyAfPXb2u9mwKO1TShVjLEkKSsYWAqbhcgFHuIahCRtmu8Y-Gtsrm_8PCZRrOsX8xIB4v3kD1zdloCfLnfqJMbxC0uxqW0qk', 'width': 3024}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5VW+MV 中正里 Tainan City, West Central District', 'global_code': '7QJ2X5VW+MV'}</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>['bakery', 'restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>593</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>No. 63號, Zhengxing St</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9946322, 'lng': 120.2033267}, 'viewport': {'northeast': {'lat': 22.99596857989272, 'lng': 120.2047258798927}, 'southwest': {'lat': 22.99326892010728, 'lng': 120.2020262201073}}}</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>極屋牛丼</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100396559246043429157"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xuPzBZ9C2VMC2__WOlkNu5g-b8MjSvBnaE1P-wL5KH3zfxWH8IsDsTNlGAXyDwJNsnVtfPJmf45f9WrEYikO26G827WaYIh_pViV7e4TN4-0Qlq_H1dyJF9cy6KnvvM6d0BX7xeTnwNo5AjbIL99wlg7dYUg4IuSOhEdorLG_bF0mK', 'width': 3024}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X6V3+R8 永福里 Tainan City, West Central District', 'global_code': '7QJ2X6V3+R8'}</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>472</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>No. 137, Section 2, Zhongyi Rd</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>{'location': {'lat': 22.998459, 'lng': 120.1986269}, 'viewport': {'northeast': {'lat': 22.99981197989272, 'lng': 120.1999693798927}, 'southwest': {'lat': 22.99711232010728, 'lng': 120.1972697201073}}}</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>#FF9E67</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>咖哩鬥陣</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>{'open_now': False}</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[{'height': 4634, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104749663103843491036"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yDl86QiC9tNDEUIbaKf7asTNnB5Hi5C9PffQLyNIpe45X-4yESYwgnfPVQ5BYbQWiIgM_x49QB06Rhqg9WP7eefACn6HxfulBWhixHWuGMzxf2E7lqcoCyYSi1kjZrCN9mvEedm84T2qf6i7_bYF_TAOLKYoJ6w3EoEoryjOf-vbhG', 'width': 6951}]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'height': 4634, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104749663103843491036"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27zwO0vO1eSzlL-ftUNNdHMUQlSd8cNr5M_oRjEmi4kKSnwDoTljPZBZImD9jlpeXU3XI_si8OmanDClmps2P8d4PtffT8zGmq-OfExIL5OB6_9ODsj554HFOZrNaaTlxK_MX-XQtLe_QQCVQQ-PrEvNJYlo42-NVSYx6CRpFBYATY9E', 'width': 6951}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>{'compound_code': 'X5XX+9F 水仙里 Tainan City, West Central District', 'global_code': '7QJ2X5XX+9F'}</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K19" t="n">
         <v>4.7</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>GOOGLE</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O19" t="n">
         <v>382</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>No. 53號, Puji Street</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9980691, 'lng': 120.1998901}, 'viewport': {'northeast': {'lat': 22.99936682989271, 'lng': 120.2012436798928}, 'southwest': {'lat': 22.99666717010727, 'lng': 120.1985440201073}}}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>米香之家</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107320946473889366352"&gt;liu hsuan&lt;/a&gt;'], 'photo_reference': 'AWYs27wvk5pzVS2uAPRcNjtJ-kTeoOhh0RB2HGErjbtZJ4-NmspC6vjBOoX8obyRI8HFB4mEsz_cvGY7_JWTeLdcUstEBJ4KZqzHmpdtEzseG3iQdR_p8EoHk-i69avA-vq3gnPkLtfaxXM8CTViExWB-byCcV-MvHPGb0QKUYJOOO7HiISb', 'width': 4032}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5XX+6X 普濟里 Tainan City, West Central District', 'global_code': '7QJ2X5XX+6X'}</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>330</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Section 2, Ximen Rd, 355號號</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9971588, 'lng': 120.197084}, 'viewport': {'northeast': {'lat': 22.99848867989272, 'lng': 120.1984830298927}, 'southwest': {'lat': 22.99578902010728, 'lng': 120.1957833701073}}}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>咖哩道場</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'open_now': False}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100196124486209848609"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wNbzzgplnOB0qZS9gRxgnWGrSw8HNbx0WHsD5_hLmnII-5BBO6JmWTpDmxUvpDPXyvO4qIPkPGqUUcPkpd4uUUbOmHyXfQz4iFjm1gZGwLMX2cwRX5rvDjRql1Uzd7-jWNtXmMTOkNrtCjD4zNmW-KZLWv6RFkKVBXgTzbHcvqvgI0', 'width': 3211}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5WW+VR West Central District, Tainan City', 'global_code': '7QJ2X5WW+VR'}</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>844</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Section 2, Hai'an Rd, 民權路與神農街間</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 23.0044879, 'lng': 120.2035687}, 'viewport': {'northeast': {'lat': 23.00554992989272, 'lng': 120.2049421298927}, 'southwest': {'lat': 23.00285027010728, 'lng': 120.2022424701073}}}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3皇3家-台南大潤發店</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/110004961632121762228"&gt;清賢&lt;/a&gt;'], 'photo_reference': 'AWYs27wOPJnp0GMyRJmfbWa-Vn_O-8rdIRrCD7GD5vIOgzR0UfMuc99ZqFyzgkkKoNrIrAd9f34DBps_pt_DQCilFC-UjIaPQwYnvZt_cUgtzLxXCoJmg0ZK8t1WxwxgeoxwTAG8nLAMgSgYE18NIJ7RGwfyt7a2JbBU5-QmWQzKq0mG1dBJ', 'width': 5712}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ChIJOcYVVrN3bjQRE2avMywX0nM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{'compound_code': '2633+QC 和順里 Tainan City, North District', 'global_code': '7QM22633+QC'}</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ChIJOcYVVrN3bjQRE2avMywX0nM</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>523</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Section 2, Lin'an Rd, 310號2F</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJOcYVVrN3bjQRE2avMywX0nM</t>
         </is>
       </c>
     </row>
